--- a/data/trans_orig/P15A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDD4473-E46C-4415-B400-F62FC5975C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE982CD9-4FA3-49F0-B04E-619A073D8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{085415EE-FD22-492C-BE3E-BB57C89B96E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31BEC8D8-6C34-4F99-864A-4AAC4869E3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,229 +77,229 @@
     <t>44,69%</t>
   </si>
   <si>
-    <t>32,4%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>48,17%</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>31,47%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>35,7%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>64,3%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
   </si>
   <si>
     <t>33,65%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
   </si>
   <si>
     <t>66,35%</t>
   </si>
   <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>51,05%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
   </si>
   <si>
     <t>49,9%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>48,08%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
   </si>
   <si>
     <t>48,95%</t>
   </si>
   <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>38,19%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
   </si>
   <si>
     <t>61,81%</t>
   </si>
   <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
@@ -530,211 +530,205 @@
     <t>46,19%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
+    <t>32,95%</t>
   </si>
   <si>
     <t>56,73%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>52,72%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>67,05%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>44,36%</t>
   </si>
   <si>
-    <t>35,32%</t>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>36,71%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>55,64%</t>
   </si>
   <si>
-    <t>64,68%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
   </si>
   <si>
     <t>63,29%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
   </si>
   <si>
     <t>58,81%</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>39,91%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>44,1%</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>25,98%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
   </si>
   <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>55,9%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>74,02%</t>
   </si>
   <si>
     <t>57,98%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
   </si>
   <si>
     <t>44,09%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>44,89%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>55,91%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
   <si>
     <t>54,29%</t>
   </si>
   <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
   </si>
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
@@ -908,9 +902,6 @@
     <t>45,14%</t>
   </si>
   <si>
-    <t>43,01%</t>
-  </si>
-  <si>
     <t>37,24%</t>
   </si>
   <si>
@@ -927,9 +918,6 @@
   </si>
   <si>
     <t>70,22%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
   </si>
   <si>
     <t>51,16%</t>
@@ -1353,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C70A76-9F7D-4D5A-AE8B-C20BE5784842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82BE762-BC9E-477D-91C8-9459EB6261D7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526FD445-90EF-4209-8AD1-9B266E0FAFDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D914-7BEC-4610-B766-6965D2E18976}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6238E850-FAC7-48E6-9132-B982DB1B32CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ECDDED-500F-49CC-8C0E-0C3CC7254624}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2985,7 +2973,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2994,13 +2982,13 @@
         <v>42321</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3009,13 +2997,13 @@
         <v>63430</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3018,13 @@
         <v>24594</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3045,13 +3033,13 @@
         <v>32281</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3060,13 +3048,13 @@
         <v>56875</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3122,13 @@
         <v>53755</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3149,13 +3137,13 @@
         <v>31514</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -3164,13 +3152,13 @@
         <v>85269</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3173,10 @@
         <v>67424</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>189</v>
@@ -3310,7 +3298,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3319,13 +3307,13 @@
         <v>25967</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3328,13 @@
         <v>18504</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3355,13 +3343,13 @@
         <v>17332</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -3370,13 +3358,13 @@
         <v>35836</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3432,13 @@
         <v>87156</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3459,13 +3447,13 @@
         <v>87509</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -3474,13 +3462,13 @@
         <v>174666</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3483,13 @@
         <v>110523</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -3510,13 +3498,13 @@
         <v>103944</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>201</v>
@@ -3525,13 +3513,13 @@
         <v>214466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F524EE7-515F-4CBE-8DC2-524BEE2BAB58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6276AD3D-C1B7-48B2-8EF9-4B651A42FBFC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3718,13 @@
         <v>13450</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -3745,13 +3733,13 @@
         <v>42330</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -3760,13 +3748,13 @@
         <v>55780</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3769,13 @@
         <v>22801</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>79</v>
@@ -3796,13 +3784,13 @@
         <v>44060</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>109</v>
@@ -3811,13 +3799,13 @@
         <v>66860</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3873,13 @@
         <v>51323</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -3900,13 +3888,13 @@
         <v>44933</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -3915,13 +3903,13 @@
         <v>96256</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3924,13 @@
         <v>81862</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>89</v>
@@ -3951,13 +3939,13 @@
         <v>65931</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>169</v>
@@ -3966,13 +3954,13 @@
         <v>147793</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4028,13 @@
         <v>10753</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4055,13 +4043,13 @@
         <v>12025</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4070,13 +4058,13 @@
         <v>22778</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4079,13 @@
         <v>23401</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4106,13 +4094,13 @@
         <v>21591</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>55</v>
@@ -4121,13 +4109,13 @@
         <v>44992</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4183,13 @@
         <v>75526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4210,13 +4198,13 @@
         <v>99288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -4225,13 +4213,13 @@
         <v>174814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4234,13 @@
         <v>128064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4261,13 +4249,13 @@
         <v>131581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -4276,13 +4264,13 @@
         <v>259645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE982CD9-4FA3-49F0-B04E-619A073D8F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1EF17C-6E8B-4522-B8B7-A61C99DCED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{31BEC8D8-6C34-4F99-864A-4AAC4869E3D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D31F36ED-2C1F-4B2C-A42F-E6476E04058A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>44,69%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>52,03%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>55,31%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>47,97%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>53,91%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
   </si>
   <si>
     <t>48,35%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
   </si>
   <si>
     <t>51,65%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,739 +197,745 @@
     <t>47,21%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>52,79%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>43,36%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>49,37%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>51,83%</t>
   </si>
   <si>
-    <t>46,99%</t>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>55,1%</t>
+    <t>64,43%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82BE762-BC9E-477D-91C8-9459EB6261D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCFC878-D89B-406A-A1C8-E14DB4642040}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218D914-7BEC-4610-B766-6965D2E18976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A325B-9D14-4846-BD9D-9E0749667D97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,7 +2735,7 @@
         <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>188703</v>
+        <v>188704</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>152</v>
@@ -2780,7 +2786,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>287018</v>
+        <v>287019</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ECDDED-500F-49CC-8C0E-0C3CC7254624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE70720F-EDE8-4A40-989D-300A4ACB97B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2979,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2982,13 +2988,13 @@
         <v>42321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -2997,13 +3003,13 @@
         <v>63430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>24594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -3033,13 +3039,13 @@
         <v>32281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3048,13 +3054,13 @@
         <v>56875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3128,13 @@
         <v>53755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3137,13 +3143,13 @@
         <v>31514</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -3152,13 +3158,13 @@
         <v>85269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>67424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>53</v>
@@ -3188,13 +3194,13 @@
         <v>54331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -3203,13 +3209,13 @@
         <v>121755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3283,13 @@
         <v>12292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3292,13 +3298,13 @@
         <v>13675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3307,13 +3313,13 @@
         <v>25967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3334,13 @@
         <v>18504</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3343,13 +3349,13 @@
         <v>17332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -3358,13 +3364,13 @@
         <v>35836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3438,13 @@
         <v>87156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3447,13 +3453,13 @@
         <v>87509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -3462,13 +3468,13 @@
         <v>174666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3489,13 @@
         <v>110523</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>95</v>
@@ -3498,13 +3504,13 @@
         <v>103944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>201</v>
@@ -3513,13 +3519,13 @@
         <v>214466</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6276AD3D-C1B7-48B2-8EF9-4B651A42FBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035FF052-3E70-443E-88F3-C808CC94B101}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3724,13 @@
         <v>13450</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -3733,13 +3739,13 @@
         <v>42330</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -3748,13 +3754,13 @@
         <v>55780</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,10 +3775,10 @@
         <v>22801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>242</v>
@@ -4183,7 +4189,7 @@
         <v>75526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>285</v>
@@ -4198,13 +4204,13 @@
         <v>99288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -4213,13 +4219,13 @@
         <v>174814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4240,13 @@
         <v>128064</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -4249,13 +4255,13 @@
         <v>131581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>333</v>
@@ -4264,13 +4270,13 @@
         <v>259645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P15A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D1EF17C-6E8B-4522-B8B7-A61C99DCED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B17A5A0-EC1C-43CC-80D1-96C092D4F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D31F36ED-2C1F-4B2C-A42F-E6476E04058A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89AF3426-CE5F-4F35-BEF2-CB53CF99307B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 6,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,805 +137,691 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 7,95%)</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 5,56%)</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCFC878-D89B-406A-A1C8-E14DB4642040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E928AF-689E-410B-893D-4998A662C727}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,7 +1384,7 @@
         <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>70701</v>
+        <v>70702</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1516,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="7">
-        <v>31158</v>
+        <v>1006549</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1531,10 +1417,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>1247</v>
       </c>
       <c r="I5" s="7">
-        <v>34021</v>
+        <v>1269585</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1546,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>2259</v>
       </c>
       <c r="N5" s="7">
-        <v>65180</v>
+        <v>2276134</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1567,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>58</v>
+        <v>1038</v>
       </c>
       <c r="D6" s="7">
-        <v>56332</v>
+        <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1582,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>77</v>
+        <v>1291</v>
       </c>
       <c r="I6" s="7">
-        <v>79549</v>
+        <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1597,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>135881</v>
+        <v>2346836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1653,16 +1539,16 @@
         <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>113545</v>
+        <v>113546</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>65</v>
+        <v>1573</v>
       </c>
       <c r="D8" s="7">
-        <v>67128</v>
+        <v>1614909</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1520</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1552631</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>36</v>
-      </c>
-      <c r="I8" s="7">
-        <v>37431</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>3093</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3167540</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>101</v>
-      </c>
-      <c r="N8" s="7">
-        <v>104559</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>141</v>
+        <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>145631</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1737,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>70</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="7">
-        <v>72473</v>
+        <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1752,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>211</v>
+        <v>3203</v>
       </c>
       <c r="N9" s="7">
-        <v>218104</v>
+        <v>3281086</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1769,7 +1655,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1781,28 +1667,28 @@
         <v>19400</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>13235</v>
+        <v>13236</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -1811,13 +1697,13 @@
         <v>32636</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>21693</v>
+        <v>532008</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>440</v>
+      </c>
+      <c r="I11" s="7">
+        <v>463176</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>10</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10133</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>950</v>
+      </c>
+      <c r="N11" s="7">
+        <v>995184</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7">
-        <v>31826</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>41093</v>
+        <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>452</v>
       </c>
       <c r="I12" s="7">
-        <v>23368</v>
+        <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>60</v>
+        <v>979</v>
       </c>
       <c r="N12" s="7">
-        <v>64462</v>
+        <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1822,13 @@
         <v>123077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -1951,13 +1837,13 @@
         <v>93806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -1966,13 +1852,13 @@
         <v>216883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +1867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>118</v>
+        <v>3095</v>
       </c>
       <c r="D14" s="7">
-        <v>119979</v>
+        <v>3153467</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3285392</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6302</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6438857</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>79</v>
-      </c>
-      <c r="I14" s="7">
-        <v>81585</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>197</v>
-      </c>
-      <c r="N14" s="7">
-        <v>201564</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>243056</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2047,10 +1933,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>169</v>
+        <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>175391</v>
+        <v>3379198</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2062,10 +1948,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>406</v>
+        <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>418447</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2079,7 +1965,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640A325B-9D14-4846-BD9D-9E0749667D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F998C25-0158-444D-9389-D6934BF54B5B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2219,16 +2105,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>24150</v>
+        <v>24149</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -2237,13 +2123,13 @@
         <v>43571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2252,13 +2138,13 @@
         <v>67721</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2153,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>49</v>
+        <v>886</v>
       </c>
       <c r="D5" s="7">
-        <v>52590</v>
+        <v>950494</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1294225</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2092</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2244719</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="7">
-        <v>66</v>
-      </c>
-      <c r="I5" s="7">
-        <v>69366</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="7">
-        <v>115</v>
-      </c>
-      <c r="N5" s="7">
-        <v>121956</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,10 +2204,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>908</v>
       </c>
       <c r="D6" s="7">
-        <v>76740</v>
+        <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2219,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>112937</v>
+        <v>1337796</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2348,10 +2234,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>178</v>
+        <v>2155</v>
       </c>
       <c r="N6" s="7">
-        <v>189677</v>
+        <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2377,13 +2263,13 @@
         <v>61113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -2392,13 +2278,13 @@
         <v>39821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>97</v>
@@ -2407,13 +2293,13 @@
         <v>100934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,49 +2308,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>119</v>
+        <v>1796</v>
       </c>
       <c r="D8" s="7">
-        <v>123112</v>
+        <v>1902844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>1598</v>
       </c>
       <c r="I8" s="7">
-        <v>75940</v>
+        <v>1717982</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
-        <v>191</v>
+        <v>3394</v>
       </c>
       <c r="N8" s="7">
-        <v>199051</v>
+        <v>3620826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>179</v>
+        <v>1856</v>
       </c>
       <c r="D9" s="7">
-        <v>184225</v>
+        <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2374,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>109</v>
+        <v>1635</v>
       </c>
       <c r="I9" s="7">
-        <v>115761</v>
+        <v>1757803</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2503,10 +2389,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>288</v>
+        <v>3491</v>
       </c>
       <c r="N9" s="7">
-        <v>299985</v>
+        <v>3721760</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2520,7 +2406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2418,13 @@
         <v>13053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2547,13 +2433,13 @@
         <v>14939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2562,13 +2448,13 @@
         <v>27992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,49 +2463,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>13001</v>
+        <v>468128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="I11" s="7">
-        <v>13836</v>
+        <v>443692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>826</v>
       </c>
       <c r="N11" s="7">
-        <v>26837</v>
+        <v>911820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>438</v>
       </c>
       <c r="D12" s="7">
-        <v>26054</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2529,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>412</v>
       </c>
       <c r="I12" s="7">
-        <v>28775</v>
+        <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2658,10 +2544,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>54829</v>
+        <v>939812</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2687,13 +2573,13 @@
         <v>98315</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -2702,13 +2588,13 @@
         <v>98331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>184</v>
@@ -2717,13 +2603,13 @@
         <v>196646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2618,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>181</v>
+        <v>3108</v>
       </c>
       <c r="D14" s="7">
-        <v>188704</v>
+        <v>3321467</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
-        <v>151</v>
+        <v>3204</v>
       </c>
       <c r="I14" s="7">
-        <v>159141</v>
+        <v>3455899</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
-        <v>332</v>
+        <v>6312</v>
       </c>
       <c r="N14" s="7">
-        <v>347845</v>
+        <v>6777366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>275</v>
+        <v>3202</v>
       </c>
       <c r="D15" s="7">
-        <v>287019</v>
+        <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2798,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>257472</v>
+        <v>3554230</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2813,10 +2699,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>516</v>
+        <v>6496</v>
       </c>
       <c r="N15" s="7">
-        <v>544491</v>
+        <v>6974012</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2830,7 +2716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE70720F-EDE8-4A40-989D-300A4ACB97B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B4B49-B50C-4796-BACC-45FC3A1DD064}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2752,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2859,13 @@
         <v>21109</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -2988,13 +2874,13 @@
         <v>42321</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3003,13 +2889,13 @@
         <v>63430</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>739</v>
       </c>
       <c r="D5" s="7">
-        <v>24594</v>
+        <v>733238</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>856</v>
       </c>
       <c r="I5" s="7">
-        <v>32281</v>
+        <v>952339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>1595</v>
       </c>
       <c r="N5" s="7">
-        <v>56875</v>
+        <v>1685577</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>49</v>
+        <v>762</v>
       </c>
       <c r="D6" s="7">
-        <v>45703</v>
+        <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3084,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>892</v>
       </c>
       <c r="I6" s="7">
-        <v>74602</v>
+        <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3099,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>112</v>
+        <v>1654</v>
       </c>
       <c r="N6" s="7">
-        <v>120305</v>
+        <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3128,28 +3014,28 @@
         <v>53755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>31514</v>
+        <v>31513</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -3158,13 +3044,13 @@
         <v>85269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>1901</v>
       </c>
       <c r="D8" s="7">
-        <v>67424</v>
+        <v>2022630</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>1880</v>
       </c>
       <c r="I8" s="7">
-        <v>54331</v>
+        <v>1956787</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>117</v>
+        <v>3781</v>
       </c>
       <c r="N8" s="7">
-        <v>121755</v>
+        <v>3979416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>115</v>
+        <v>1952</v>
       </c>
       <c r="D9" s="7">
-        <v>121179</v>
+        <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>1908</v>
       </c>
       <c r="I9" s="7">
-        <v>85845</v>
+        <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3254,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>196</v>
+        <v>3860</v>
       </c>
       <c r="N9" s="7">
-        <v>207024</v>
+        <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3271,7 +3157,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3169,13 @@
         <v>12292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3298,13 +3184,13 @@
         <v>13675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3313,13 +3199,13 @@
         <v>25967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="D11" s="7">
-        <v>18504</v>
+        <v>534594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="I11" s="7">
-        <v>17332</v>
+        <v>535465</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
+        <v>1003</v>
       </c>
       <c r="N11" s="7">
-        <v>35836</v>
+        <v>1070059</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>27</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>30796</v>
+        <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
+        <v>526</v>
       </c>
       <c r="I12" s="7">
-        <v>31007</v>
+        <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3409,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>55</v>
+        <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>61803</v>
+        <v>1096026</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3438,28 +3324,28 @@
         <v>87156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
       </c>
       <c r="I13" s="7">
-        <v>87509</v>
+        <v>87510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>162</v>
@@ -3468,13 +3354,13 @@
         <v>174666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,49 +3369,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>3130</v>
       </c>
       <c r="D14" s="7">
-        <v>110523</v>
+        <v>3290462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>3249</v>
       </c>
       <c r="I14" s="7">
-        <v>103944</v>
+        <v>3444590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
+        <v>6379</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6735052</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="7">
-        <v>214466</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,10 +3420,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>191</v>
+        <v>3215</v>
       </c>
       <c r="D15" s="7">
-        <v>197679</v>
+        <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3549,10 +3435,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>172</v>
+        <v>3326</v>
       </c>
       <c r="I15" s="7">
-        <v>191453</v>
+        <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3564,10 +3450,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>363</v>
+        <v>6541</v>
       </c>
       <c r="N15" s="7">
-        <v>389132</v>
+        <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3581,7 +3467,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035FF052-3E70-443E-88F3-C808CC94B101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D5B9B-B0C9-4659-A035-0CBB83455E2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3610,13 @@
         <v>13450</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -3739,13 +3625,13 @@
         <v>42330</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M4" s="7">
         <v>101</v>
@@ -3754,13 +3640,13 @@
         <v>55780</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,49 +3655,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>22801</v>
+        <v>528184</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>1349</v>
       </c>
       <c r="I5" s="7">
-        <v>44060</v>
+        <v>793623</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
-        <v>109</v>
+        <v>2017</v>
       </c>
       <c r="N5" s="7">
-        <v>66860</v>
+        <v>1321806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,10 +3706,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>36251</v>
+        <v>541634</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3835,10 +3721,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>157</v>
+        <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>86390</v>
+        <v>835953</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3850,10 +3736,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>210</v>
+        <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>122640</v>
+        <v>1377586</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3879,13 +3765,13 @@
         <v>51323</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -3894,13 +3780,13 @@
         <v>44933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -3909,13 +3795,13 @@
         <v>96256</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3810,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>1947</v>
       </c>
       <c r="D8" s="7">
-        <v>81862</v>
+        <v>2110699</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>2863</v>
       </c>
       <c r="I8" s="7">
-        <v>65931</v>
+        <v>2204587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>169</v>
+        <v>4810</v>
       </c>
       <c r="N8" s="7">
-        <v>147793</v>
+        <v>4315287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,10 +3861,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>125</v>
+        <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>133185</v>
+        <v>2162022</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3990,10 +3876,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>147</v>
+        <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>110864</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4005,10 +3891,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>272</v>
+        <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>244049</v>
+        <v>4411543</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4022,7 +3908,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4034,13 +3920,13 @@
         <v>10753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4049,13 +3935,13 @@
         <v>12025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -4064,13 +3950,13 @@
         <v>22778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,49 +3965,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>23401</v>
+        <v>662286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>983</v>
       </c>
       <c r="I11" s="7">
-        <v>21591</v>
+        <v>701861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>44992</v>
+        <v>1364148</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>34154</v>
+        <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4145,10 +4031,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>53</v>
+        <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>33616</v>
+        <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4160,10 +4046,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>67770</v>
+        <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4189,13 +4075,13 @@
         <v>75526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4204,13 +4090,13 @@
         <v>99288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -4219,13 +4105,13 @@
         <v>174814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,49 +4120,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>133</v>
+        <v>3286</v>
       </c>
       <c r="D14" s="7">
-        <v>128064</v>
+        <v>3301169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
-        <v>200</v>
+        <v>5195</v>
       </c>
       <c r="I14" s="7">
-        <v>131581</v>
+        <v>3700072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>333</v>
+        <v>8481</v>
       </c>
       <c r="N14" s="7">
-        <v>259645</v>
+        <v>7001241</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,10 +4171,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>211</v>
+        <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>203590</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4300,10 +4186,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>230869</v>
+        <v>3799360</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4315,10 +4201,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>568</v>
+        <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>434459</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4332,7 +4218,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B17A5A0-EC1C-43CC-80D1-96C092D4F6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAE7340-DF91-4CDE-BBBC-78B61A011CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{89AF3426-CE5F-4F35-BEF2-CB53CF99307B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC860E6-EFA4-46B3-9AF2-FD3B279752EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="255">
   <si>
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -656,172 +656,154 @@
     <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E928AF-689E-410B-893D-4998A662C727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080B37B6-084D-4DEF-988C-BB7E6E81532C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1435,7 +1417,7 @@
         <v>2259</v>
       </c>
       <c r="N5" s="7">
-        <v>2276134</v>
+        <v>2276133</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1486,7 +1468,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1560,7 +1542,7 @@
         <v>1573</v>
       </c>
       <c r="D8" s="7">
-        <v>1614909</v>
+        <v>1614910</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1611,7 +1593,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1870,7 +1852,7 @@
         <v>3095</v>
       </c>
       <c r="D14" s="7">
-        <v>3153467</v>
+        <v>3153466</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>75</v>
@@ -1885,7 +1867,7 @@
         <v>3207</v>
       </c>
       <c r="I14" s="7">
-        <v>3285392</v>
+        <v>3285391</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>61</v>
@@ -1900,7 +1882,7 @@
         <v>6302</v>
       </c>
       <c r="N14" s="7">
-        <v>6438857</v>
+        <v>6438858</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>80</v>
@@ -1921,7 +1903,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1936,7 +1918,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1951,7 +1933,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1984,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F998C25-0158-444D-9389-D6934BF54B5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71719759-99A6-433C-B0AD-6BA80F824A7D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2171,7 +2153,7 @@
         <v>1206</v>
       </c>
       <c r="I5" s="7">
-        <v>1294225</v>
+        <v>1294226</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>80</v>
@@ -2222,7 +2204,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2496,7 +2478,7 @@
         <v>826</v>
       </c>
       <c r="N11" s="7">
-        <v>911820</v>
+        <v>911821</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>124</v>
@@ -2547,7 +2529,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2735,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393B4B49-B50C-4796-BACC-45FC3A1DD064}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFA68A2-2598-4B04-BDE6-CC492CB6FE62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3247,7 +3229,7 @@
         <v>1003</v>
       </c>
       <c r="N11" s="7">
-        <v>1070059</v>
+        <v>1070060</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>188</v>
@@ -3298,7 +3280,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3486,7 +3468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57D5B9B-B0C9-4659-A035-0CBB83455E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F98E2F-8369-4135-B555-3982A38C7122}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3607,22 +3589,22 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>13450</v>
+        <v>12856</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>42330</v>
+        <v>39049</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>207</v>
@@ -3637,7 +3619,7 @@
         <v>101</v>
       </c>
       <c r="N4" s="7">
-        <v>55780</v>
+        <v>51905</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>210</v>
@@ -3658,13 +3640,13 @@
         <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>528184</v>
+        <v>502082</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>214</v>
@@ -3673,7 +3655,7 @@
         <v>1349</v>
       </c>
       <c r="I5" s="7">
-        <v>793623</v>
+        <v>716459</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>215</v>
@@ -3688,7 +3670,7 @@
         <v>2017</v>
       </c>
       <c r="N5" s="7">
-        <v>1321806</v>
+        <v>1218541</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>218</v>
@@ -3709,7 +3691,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3724,7 +3706,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3739,7 +3721,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3762,22 +3744,22 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>51323</v>
+        <v>48276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>44933</v>
+        <v>40950</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>223</v>
@@ -3786,22 +3768,22 @@
         <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>96256</v>
+        <v>89226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3795,13 @@
         <v>1947</v>
       </c>
       <c r="D8" s="7">
-        <v>2110699</v>
+        <v>2242051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>228</v>
@@ -3828,28 +3810,28 @@
         <v>2863</v>
       </c>
       <c r="I8" s="7">
-        <v>2204587</v>
+        <v>2196873</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>4810</v>
       </c>
       <c r="N8" s="7">
-        <v>4315287</v>
+        <v>4438924</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>232</v>
@@ -3864,7 +3846,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3879,7 +3861,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3876,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3917,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>10753</v>
+        <v>10613</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -3932,7 +3914,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>12025</v>
+        <v>10898</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -3947,16 +3929,16 @@
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>22778</v>
+        <v>21511</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,46 +3950,46 @@
         <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>662286</v>
+        <v>636010</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>983</v>
       </c>
       <c r="I11" s="7">
-        <v>701861</v>
+        <v>649565</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>1364148</v>
+        <v>1285575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4001,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4034,7 +4016,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4031,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4072,46 +4054,46 @@
         <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>75526</v>
+        <v>71746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
       </c>
       <c r="I13" s="7">
-        <v>99288</v>
+        <v>90896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>174814</v>
+        <v>162642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,46 +4105,46 @@
         <v>3286</v>
       </c>
       <c r="D14" s="7">
-        <v>3301169</v>
+        <v>3380143</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>5195</v>
       </c>
       <c r="I14" s="7">
-        <v>3700072</v>
+        <v>3562898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>8481</v>
       </c>
       <c r="N14" s="7">
-        <v>7001241</v>
+        <v>6943041</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,7 +4156,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4189,7 +4171,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4204,7 +4186,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
